--- a/src/uploads/lastUploadLienErrors.xlsx
+++ b/src/uploads/lastUploadLienErrors.xlsx
@@ -458,8 +458,8 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2">
-        <v>10</v>
+      <c r="A2" t="str">
+        <v>2402</v>
       </c>
       <c r="B2" t="str">
         <v>4.04</v>
@@ -771,6 +771,9 @@
       </c>
       <c r="B6" t="str">
         <v>4.08</v>
+      </c>
+      <c r="C6" t="str">
+        <v>C0402</v>
       </c>
       <c r="D6" t="str">
         <v>Asbury Park</v>
